--- a/data/pca/factorExposure/factorExposure_2018-08-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03666629814184175</v>
+        <v>0.02715280037535491</v>
       </c>
       <c r="C2">
-        <v>0.04459467047985537</v>
+        <v>0.01669664498999509</v>
       </c>
       <c r="D2">
-        <v>0.009365821790014765</v>
+        <v>0.0219344536426128</v>
       </c>
       <c r="E2">
-        <v>-0.04935204892846932</v>
+        <v>-0.01591409726195344</v>
       </c>
       <c r="F2">
-        <v>0.1499768273524165</v>
+        <v>-0.007298177416952135</v>
       </c>
       <c r="G2">
-        <v>0.04481441365324823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08378208801603095</v>
+      </c>
+      <c r="H2">
+        <v>-0.01973498353220172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1246491968092778</v>
+        <v>0.08188818012418797</v>
       </c>
       <c r="C3">
-        <v>0.02198600493453606</v>
+        <v>-0.01311146616289667</v>
       </c>
       <c r="D3">
-        <v>-0.0550317517110244</v>
+        <v>0.02114103286612196</v>
       </c>
       <c r="E3">
-        <v>-0.08146798169260094</v>
+        <v>-0.006687396777060452</v>
       </c>
       <c r="F3">
-        <v>0.3889086281298313</v>
+        <v>0.04938839512255679</v>
       </c>
       <c r="G3">
-        <v>0.1630114689339116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2638591431714085</v>
+      </c>
+      <c r="H3">
+        <v>-0.03873506597280925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05357137391862859</v>
+        <v>0.04799536446578018</v>
       </c>
       <c r="C4">
-        <v>0.009531173467270233</v>
+        <v>0.004158325960937861</v>
       </c>
       <c r="D4">
-        <v>0.03550998861075463</v>
+        <v>0.04138118707041927</v>
       </c>
       <c r="E4">
-        <v>-0.06462677256315123</v>
+        <v>0.01833623599522893</v>
       </c>
       <c r="F4">
-        <v>0.08419594314719817</v>
+        <v>-0.04909791869413777</v>
       </c>
       <c r="G4">
-        <v>0.04378997975129534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05942612340551219</v>
+      </c>
+      <c r="H4">
+        <v>-0.02993730959200261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01325556986560074</v>
+        <v>0.02589839356232924</v>
       </c>
       <c r="C6">
-        <v>0.01115431167662769</v>
+        <v>0.004200594448890813</v>
       </c>
       <c r="D6">
-        <v>-0.008100928243343226</v>
+        <v>0.0512546387065804</v>
       </c>
       <c r="E6">
-        <v>-0.02106486656082909</v>
+        <v>0.003951725752477504</v>
       </c>
       <c r="F6">
-        <v>0.01440185467018271</v>
+        <v>-0.03233999061168762</v>
       </c>
       <c r="G6">
-        <v>-0.005517155624273989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01924288249617211</v>
+      </c>
+      <c r="H6">
+        <v>-0.05274670232566944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02675659162786951</v>
+        <v>0.02062700801076325</v>
       </c>
       <c r="C7">
-        <v>0.03327079835464913</v>
+        <v>0.003224266263478897</v>
       </c>
       <c r="D7">
-        <v>-0.006956658030211013</v>
+        <v>0.0230579440911144</v>
       </c>
       <c r="E7">
-        <v>-0.03268131962435537</v>
+        <v>0.03373913115669539</v>
       </c>
       <c r="F7">
-        <v>0.06215839831289175</v>
+        <v>-0.0103341452880727</v>
       </c>
       <c r="G7">
-        <v>0.05595722698347756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03940851179703132</v>
+      </c>
+      <c r="H7">
+        <v>-0.0163678760101703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01932932265784309</v>
+        <v>0.007170561085942397</v>
       </c>
       <c r="C8">
-        <v>-0.001479248133109634</v>
+        <v>-0.002418317340770619</v>
       </c>
       <c r="D8">
-        <v>0.01049449751265167</v>
+        <v>0.01147361476772768</v>
       </c>
       <c r="E8">
-        <v>-0.06687772784733159</v>
+        <v>0.01029793140345489</v>
       </c>
       <c r="F8">
-        <v>0.09571043128948434</v>
+        <v>-0.02054674579146025</v>
       </c>
       <c r="G8">
-        <v>0.06289835338955869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0600280060107204</v>
+      </c>
+      <c r="H8">
+        <v>-0.009614729426025303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04531041029550375</v>
+        <v>0.04020319804334488</v>
       </c>
       <c r="C9">
-        <v>-0.004134883095757951</v>
+        <v>-0.0004726621379149972</v>
       </c>
       <c r="D9">
-        <v>0.02967050553762461</v>
+        <v>0.03307084985537301</v>
       </c>
       <c r="E9">
-        <v>-0.06680607265824207</v>
+        <v>0.01669265664190579</v>
       </c>
       <c r="F9">
-        <v>0.07680323481162474</v>
+        <v>-0.02489304522188166</v>
       </c>
       <c r="G9">
-        <v>0.04409137868984516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06530307254252221</v>
+      </c>
+      <c r="H9">
+        <v>-0.02749681507227865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04110082620564878</v>
+        <v>0.1008370281547214</v>
       </c>
       <c r="C10">
-        <v>-0.01107925424956797</v>
+        <v>-0.03080445220562201</v>
       </c>
       <c r="D10">
-        <v>0.02670021128720752</v>
+        <v>-0.1515373149969881</v>
       </c>
       <c r="E10">
-        <v>0.1084821675349446</v>
+        <v>-0.009186789725681236</v>
       </c>
       <c r="F10">
-        <v>0.07107583862521688</v>
+        <v>0.04771037885064354</v>
       </c>
       <c r="G10">
-        <v>-0.03322653903235884</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01839057837573765</v>
+      </c>
+      <c r="H10">
+        <v>-0.001955766818262226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03424096395812935</v>
+        <v>0.02201462823346956</v>
       </c>
       <c r="C11">
-        <v>0.01990863056955859</v>
+        <v>-0.008246366244813036</v>
       </c>
       <c r="D11">
-        <v>0.001056439593359031</v>
+        <v>0.03625798908313502</v>
       </c>
       <c r="E11">
-        <v>-0.03488229932026592</v>
+        <v>-0.00525726621613351</v>
       </c>
       <c r="F11">
-        <v>0.03611534034286748</v>
+        <v>-0.01101617761106817</v>
       </c>
       <c r="G11">
-        <v>0.01762035901587769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03714088543284894</v>
+      </c>
+      <c r="H11">
+        <v>-0.02919642925595229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04167876879449425</v>
+        <v>0.02992976053954134</v>
       </c>
       <c r="C12">
-        <v>0.008905112741612082</v>
+        <v>-0.006389057351470285</v>
       </c>
       <c r="D12">
-        <v>0.009473584627132372</v>
+        <v>0.03780357580001163</v>
       </c>
       <c r="E12">
-        <v>-0.0441092785206862</v>
+        <v>0.006166228218957738</v>
       </c>
       <c r="F12">
-        <v>0.01850870602424829</v>
+        <v>-0.0183404430152612</v>
       </c>
       <c r="G12">
-        <v>0.01448724518066151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01571338705613062</v>
+      </c>
+      <c r="H12">
+        <v>-0.01465036823878944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02127731739041524</v>
+        <v>0.02762811486603489</v>
       </c>
       <c r="C13">
-        <v>0.03528454766201365</v>
+        <v>0.01331521323826817</v>
       </c>
       <c r="D13">
-        <v>0.002815572966768481</v>
+        <v>0.003737715761543746</v>
       </c>
       <c r="E13">
-        <v>-0.01404710837443762</v>
+        <v>-0.01853191554013421</v>
       </c>
       <c r="F13">
-        <v>0.09482651768420991</v>
+        <v>-0.01014366677798858</v>
       </c>
       <c r="G13">
-        <v>0.03134358961923703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.07190159675198513</v>
+      </c>
+      <c r="H13">
+        <v>-0.02782865200560846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01371441750879229</v>
+        <v>0.01729582245016667</v>
       </c>
       <c r="C14">
-        <v>0.007822123959379087</v>
+        <v>0.0004929241868555732</v>
       </c>
       <c r="D14">
-        <v>0.00670245196740461</v>
+        <v>0.004977715856307566</v>
       </c>
       <c r="E14">
-        <v>-0.0325350403759684</v>
+        <v>0.007639711126803289</v>
       </c>
       <c r="F14">
-        <v>0.06733266283724651</v>
+        <v>-0.01588323526904045</v>
       </c>
       <c r="G14">
-        <v>0.06192762374079994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04766346781136549</v>
+      </c>
+      <c r="H14">
+        <v>0.01579171533848818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02522116732110567</v>
+        <v>0.02305587533576714</v>
       </c>
       <c r="C16">
-        <v>0.01824671222067728</v>
+        <v>-0.00864589874725293</v>
       </c>
       <c r="D16">
-        <v>0.003384274036019248</v>
+        <v>0.03229818681500458</v>
       </c>
       <c r="E16">
-        <v>-0.03243572337958303</v>
+        <v>-0.0003316473008631985</v>
       </c>
       <c r="F16">
-        <v>0.04345995932120975</v>
+        <v>-0.01554599623828404</v>
       </c>
       <c r="G16">
-        <v>0.02075676812106315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03381693017598886</v>
+      </c>
+      <c r="H16">
+        <v>-0.02273641053937455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04265826545571709</v>
+        <v>0.03490239262207066</v>
       </c>
       <c r="C19">
-        <v>0.02016794390878373</v>
+        <v>-0.0003156708148293879</v>
       </c>
       <c r="D19">
-        <v>0.0004503992697798054</v>
+        <v>0.0162369743683142</v>
       </c>
       <c r="E19">
-        <v>-0.047872569839465</v>
+        <v>-0.001144220982479716</v>
       </c>
       <c r="F19">
-        <v>0.1068363860618802</v>
+        <v>-0.02290530225386237</v>
       </c>
       <c r="G19">
-        <v>0.04117797304486997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07786074861754184</v>
+      </c>
+      <c r="H19">
+        <v>-0.03919429719463762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0001303893972857501</v>
+        <v>0.009822199611596989</v>
       </c>
       <c r="C20">
-        <v>0.01330844829359052</v>
+        <v>0.006785378727523878</v>
       </c>
       <c r="D20">
-        <v>0.01138725277157573</v>
+        <v>0.004962590725937937</v>
       </c>
       <c r="E20">
-        <v>-0.03539573769936814</v>
+        <v>-0.0001522895407780087</v>
       </c>
       <c r="F20">
-        <v>0.06693018066409645</v>
+        <v>-0.01030579581912872</v>
       </c>
       <c r="G20">
-        <v>0.06723306212897165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05363039957263214</v>
+      </c>
+      <c r="H20">
+        <v>0.008861977304910118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0005893173031225287</v>
+        <v>0.02010756806553871</v>
       </c>
       <c r="C21">
-        <v>0.001616900676317571</v>
+        <v>0.006398898056628285</v>
       </c>
       <c r="D21">
-        <v>-0.01274529214463557</v>
+        <v>0.00853957884601206</v>
       </c>
       <c r="E21">
-        <v>-0.03951469571905856</v>
+        <v>0.01196567049646242</v>
       </c>
       <c r="F21">
-        <v>0.0648274069248021</v>
+        <v>-0.005606668556277018</v>
       </c>
       <c r="G21">
-        <v>0.02260881494917087</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05719125854106577</v>
+      </c>
+      <c r="H21">
+        <v>-0.01005256962867275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.032145251899816</v>
+        <v>0.02090691372999001</v>
       </c>
       <c r="C24">
-        <v>0.01776594859138793</v>
+        <v>-0.003080831504516214</v>
       </c>
       <c r="D24">
-        <v>0.009334987436563144</v>
+        <v>0.0336744286943885</v>
       </c>
       <c r="E24">
-        <v>-0.01898271377375452</v>
+        <v>-0.0001265811779456993</v>
       </c>
       <c r="F24">
-        <v>0.03795954454014711</v>
+        <v>-0.01021426211697484</v>
       </c>
       <c r="G24">
-        <v>0.01417036070079756</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03059436127162337</v>
+      </c>
+      <c r="H24">
+        <v>-0.02720131912627301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03134831096347501</v>
+        <v>0.03015922343574546</v>
       </c>
       <c r="C25">
-        <v>0.01052623150780298</v>
+        <v>-0.0009576169553063537</v>
       </c>
       <c r="D25">
-        <v>0.00209000687654702</v>
+        <v>0.03286723378604171</v>
       </c>
       <c r="E25">
-        <v>-0.03955531267434115</v>
+        <v>0.00131535370496611</v>
       </c>
       <c r="F25">
-        <v>0.03500373457935153</v>
+        <v>-0.01683517454749086</v>
       </c>
       <c r="G25">
-        <v>0.001830299737735813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03546238630837752</v>
+      </c>
+      <c r="H25">
+        <v>-0.02905839363045606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.021708776876123</v>
+        <v>0.02064778653598906</v>
       </c>
       <c r="C26">
-        <v>0.02981359997247365</v>
+        <v>0.01691133703106379</v>
       </c>
       <c r="D26">
-        <v>-0.0191144662696443</v>
+        <v>0.003701119946712715</v>
       </c>
       <c r="E26">
-        <v>-0.03587983948861288</v>
+        <v>-0.007392840587940971</v>
       </c>
       <c r="F26">
-        <v>0.06127731237666518</v>
+        <v>-0.00116676928627604</v>
       </c>
       <c r="G26">
-        <v>0.02757463103591788</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0388101560175913</v>
+      </c>
+      <c r="H26">
+        <v>0.001439270018039382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07352843726301982</v>
+        <v>0.02888177465477933</v>
       </c>
       <c r="C27">
-        <v>0.01659630676476768</v>
+        <v>-0.01079021145942117</v>
       </c>
       <c r="D27">
-        <v>0.04760339785036891</v>
+        <v>0.01798363597570707</v>
       </c>
       <c r="E27">
-        <v>-0.05175981650545859</v>
+        <v>0.005730158065750196</v>
       </c>
       <c r="F27">
-        <v>0.0644544199392416</v>
+        <v>-0.02008866576214566</v>
       </c>
       <c r="G27">
-        <v>0.04730476992607725</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02955192430216203</v>
+      </c>
+      <c r="H27">
+        <v>0.001823550079021657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06260030538122845</v>
+        <v>0.1518346118665989</v>
       </c>
       <c r="C28">
-        <v>-0.02955725798506233</v>
+        <v>-0.0331449815841588</v>
       </c>
       <c r="D28">
-        <v>0.05093292545655248</v>
+        <v>-0.2236649583273981</v>
       </c>
       <c r="E28">
-        <v>0.1665219577250204</v>
+        <v>-0.00747071778479646</v>
       </c>
       <c r="F28">
-        <v>0.08982147270527463</v>
+        <v>0.0548385573722255</v>
       </c>
       <c r="G28">
-        <v>-0.004328893707342353</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.004349729414349604</v>
+      </c>
+      <c r="H28">
+        <v>0.01621237515824711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02177247312121904</v>
+        <v>0.0218130379267967</v>
       </c>
       <c r="C29">
-        <v>0.002485114706376148</v>
+        <v>-0.001538040766391629</v>
       </c>
       <c r="D29">
-        <v>0.01221972721622478</v>
+        <v>0.008255635855245049</v>
       </c>
       <c r="E29">
-        <v>-0.0504566347379047</v>
+        <v>0.009182755158629579</v>
       </c>
       <c r="F29">
-        <v>0.05199119255809691</v>
+        <v>-0.0191528555643536</v>
       </c>
       <c r="G29">
-        <v>0.05897010966255166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04075893872644509</v>
+      </c>
+      <c r="H29">
+        <v>0.01624842230832971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08994978011413474</v>
+        <v>0.05349050405967611</v>
       </c>
       <c r="C30">
-        <v>0.05707078431681628</v>
+        <v>0.003951572856723466</v>
       </c>
       <c r="D30">
-        <v>0.04194202384999394</v>
+        <v>0.06705127508013337</v>
       </c>
       <c r="E30">
-        <v>-0.08471897455138985</v>
+        <v>-0.03708583533171166</v>
       </c>
       <c r="F30">
-        <v>0.06590991058755045</v>
+        <v>-0.05426981037721691</v>
       </c>
       <c r="G30">
-        <v>0.0356970840605755</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.07288191458959604</v>
+      </c>
+      <c r="H30">
+        <v>-0.03804213006219107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06395435386129508</v>
+        <v>0.05540140312154</v>
       </c>
       <c r="C31">
-        <v>0.05090643804195543</v>
+        <v>-0.01492899291127988</v>
       </c>
       <c r="D31">
-        <v>-0.002171692911171687</v>
+        <v>0.02936268103211574</v>
       </c>
       <c r="E31">
-        <v>-0.03174519109338409</v>
+        <v>-0.009659592041802303</v>
       </c>
       <c r="F31">
-        <v>0.04343243857685321</v>
+        <v>-0.01562501233640578</v>
       </c>
       <c r="G31">
-        <v>0.07393163550218525</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02632747058491231</v>
+      </c>
+      <c r="H31">
+        <v>0.01331710559495494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01933720947406207</v>
+        <v>0.01170264837301045</v>
       </c>
       <c r="C32">
-        <v>0.01015400096076599</v>
+        <v>-0.01387678858302842</v>
       </c>
       <c r="D32">
-        <v>0.0131467097059556</v>
+        <v>0.003317441325040284</v>
       </c>
       <c r="E32">
-        <v>-0.0766754022784801</v>
+        <v>0.01763435074781753</v>
       </c>
       <c r="F32">
-        <v>0.06538284891845922</v>
+        <v>-0.042502289297747</v>
       </c>
       <c r="G32">
-        <v>0.04253422894770451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.06192772292978229</v>
+      </c>
+      <c r="H32">
+        <v>-0.04484830266181092</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05647061169168027</v>
+        <v>0.04109875822065724</v>
       </c>
       <c r="C33">
-        <v>0.03752703103000114</v>
+        <v>-0.001521568635797229</v>
       </c>
       <c r="D33">
-        <v>-0.02395753837842193</v>
+        <v>0.03140765005314071</v>
       </c>
       <c r="E33">
-        <v>-0.06438676392323139</v>
+        <v>-0.02390495888360233</v>
       </c>
       <c r="F33">
-        <v>0.09222453184581818</v>
+        <v>-1.906254853041621e-05</v>
       </c>
       <c r="G33">
-        <v>0.04255816855720138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06416654542697434</v>
+      </c>
+      <c r="H33">
+        <v>-0.01750865537599243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03356377395165808</v>
+        <v>0.02734633525515707</v>
       </c>
       <c r="C34">
-        <v>0.01723022873413984</v>
+        <v>-0.01707840904765929</v>
       </c>
       <c r="D34">
-        <v>0.01131948895627291</v>
+        <v>0.034171645839208</v>
       </c>
       <c r="E34">
-        <v>-0.04540753969989594</v>
+        <v>0.005043555209758635</v>
       </c>
       <c r="F34">
-        <v>0.04730524165374447</v>
+        <v>-0.01756995841036087</v>
       </c>
       <c r="G34">
-        <v>0.01329812601914175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.03050780050739984</v>
+      </c>
+      <c r="H34">
+        <v>-0.02440367509292468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01422520445314254</v>
+        <v>0.02211931235518392</v>
       </c>
       <c r="C36">
-        <v>0.004246949652730596</v>
+        <v>0.003282662703580436</v>
       </c>
       <c r="D36">
-        <v>0.007140442975016403</v>
+        <v>-0.0007312827294306964</v>
       </c>
       <c r="E36">
-        <v>-0.02587669947846757</v>
+        <v>0.00205710840486342</v>
       </c>
       <c r="F36">
-        <v>0.02806512348167337</v>
+        <v>-0.007176389311486598</v>
       </c>
       <c r="G36">
-        <v>0.03132684476280722</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02128986672861841</v>
+      </c>
+      <c r="H36">
+        <v>0.002918093438410836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0004838616320342256</v>
+        <v>0.02207069970819889</v>
       </c>
       <c r="C38">
-        <v>-0.01795404371257611</v>
+        <v>-0.01636012717610676</v>
       </c>
       <c r="D38">
-        <v>-0.007016488143544167</v>
+        <v>0.00130369639428376</v>
       </c>
       <c r="E38">
-        <v>0.004173034806863424</v>
+        <v>0.005002542245877721</v>
       </c>
       <c r="F38">
-        <v>0.01760935618089363</v>
+        <v>-0.008676292681965401</v>
       </c>
       <c r="G38">
-        <v>-0.01113187733356497</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.03111172060467168</v>
+      </c>
+      <c r="H38">
+        <v>-0.02169943552604504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04065703806154993</v>
+        <v>0.02094096493488717</v>
       </c>
       <c r="C39">
-        <v>0.03695415332798139</v>
+        <v>-0.001087107438648088</v>
       </c>
       <c r="D39">
-        <v>0.01041333047237277</v>
+        <v>0.07430077274525855</v>
       </c>
       <c r="E39">
-        <v>-0.04429557585408347</v>
+        <v>-0.005766356600521274</v>
       </c>
       <c r="F39">
-        <v>0.05305700835653118</v>
+        <v>-0.0224228990694789</v>
       </c>
       <c r="G39">
-        <v>0.01021963569392107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05902420442409214</v>
+      </c>
+      <c r="H39">
+        <v>-0.05194716991684629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03111967105475539</v>
+        <v>0.03446726904166937</v>
       </c>
       <c r="C40">
-        <v>0.06486986731327089</v>
+        <v>-0.001703404946302952</v>
       </c>
       <c r="D40">
-        <v>0.01428810603676481</v>
+        <v>0.01855179999077256</v>
       </c>
       <c r="E40">
-        <v>-0.03164560759064058</v>
+        <v>-0.02302358675926463</v>
       </c>
       <c r="F40">
-        <v>0.09841412555103948</v>
+        <v>-0.02489939850663123</v>
       </c>
       <c r="G40">
-        <v>0.04186103113362324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.05420694931087105</v>
+      </c>
+      <c r="H40">
+        <v>-0.0475813515832408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001236405445364826</v>
+        <v>0.01232504309247987</v>
       </c>
       <c r="C41">
-        <v>0.003182310342102205</v>
+        <v>-0.000380072167116624</v>
       </c>
       <c r="D41">
-        <v>-0.003217636079129602</v>
+        <v>-0.0123263460971821</v>
       </c>
       <c r="E41">
-        <v>-0.01413296043294462</v>
+        <v>-0.001535325919045526</v>
       </c>
       <c r="F41">
-        <v>0.01561220035024337</v>
+        <v>-0.001872594489162973</v>
       </c>
       <c r="G41">
-        <v>0.05400415081403696</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01068137431455941</v>
+      </c>
+      <c r="H41">
+        <v>0.01502076842972116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3898039761319899</v>
+        <v>0.1984690393606663</v>
       </c>
       <c r="C42">
-        <v>-0.1318016137585374</v>
+        <v>0.07558640419775521</v>
       </c>
       <c r="D42">
-        <v>-0.8600235386752757</v>
+        <v>0.3900997022078466</v>
       </c>
       <c r="E42">
-        <v>0.1481457288725259</v>
+        <v>-0.1422569735363728</v>
       </c>
       <c r="F42">
-        <v>-0.1730275327459447</v>
+        <v>0.8538044235669614</v>
       </c>
       <c r="G42">
-        <v>0.05230080195990819</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1834904334987996</v>
+      </c>
+      <c r="H42">
+        <v>0.01173786771075275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.005398973716910604</v>
+        <v>0.01181299791343837</v>
       </c>
       <c r="C43">
-        <v>0.004772649245500292</v>
+        <v>0.001584643688263352</v>
       </c>
       <c r="D43">
-        <v>-0.01494829880982657</v>
+        <v>-0.01472811701440961</v>
       </c>
       <c r="E43">
-        <v>-0.01650217475178114</v>
+        <v>-0.007204448190230269</v>
       </c>
       <c r="F43">
-        <v>0.02855019036390405</v>
+        <v>0.009914937405880508</v>
       </c>
       <c r="G43">
-        <v>0.05101981773552652</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01633469919343984</v>
+      </c>
+      <c r="H43">
+        <v>0.009906918926115426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02165448647177899</v>
+        <v>0.0157007123398143</v>
       </c>
       <c r="C44">
-        <v>0.01849912592384468</v>
+        <v>-0.0007580448665229439</v>
       </c>
       <c r="D44">
-        <v>-0.02422355082661377</v>
+        <v>0.02437908148659771</v>
       </c>
       <c r="E44">
-        <v>-0.0690259638829628</v>
+        <v>-0.001157602467216738</v>
       </c>
       <c r="F44">
-        <v>0.17418195302876</v>
+        <v>0.009528328190051772</v>
       </c>
       <c r="G44">
-        <v>0.160851607648134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08978194252684053</v>
+      </c>
+      <c r="H44">
+        <v>-0.01476273679773014</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0212964563804589</v>
+        <v>0.02034382531258526</v>
       </c>
       <c r="C46">
-        <v>0.01698053459131987</v>
+        <v>0.003062296688989532</v>
       </c>
       <c r="D46">
-        <v>-0.009912788355734668</v>
+        <v>0.01527321252702994</v>
       </c>
       <c r="E46">
-        <v>-0.05988426676507339</v>
+        <v>-0.00165072028240653</v>
       </c>
       <c r="F46">
-        <v>0.06606121659112801</v>
+        <v>-0.01738184999783273</v>
       </c>
       <c r="G46">
-        <v>0.06015901738060311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05617858876587171</v>
+      </c>
+      <c r="H46">
+        <v>0.01371195222971249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09796063980496621</v>
+        <v>0.07558585662541818</v>
       </c>
       <c r="C47">
-        <v>0.03620951607403396</v>
+        <v>-0.03007567396248264</v>
       </c>
       <c r="D47">
-        <v>0.02092714423327384</v>
+        <v>0.04152604488678803</v>
       </c>
       <c r="E47">
-        <v>-0.03566503418925126</v>
+        <v>-0.005319520234277303</v>
       </c>
       <c r="F47">
-        <v>0.00478880048118011</v>
+        <v>-0.02655833151194005</v>
       </c>
       <c r="G47">
-        <v>0.08658035616254367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.007862439868366886</v>
+      </c>
+      <c r="H47">
+        <v>0.03029080456129214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01588279764172672</v>
+        <v>0.02254240640318805</v>
       </c>
       <c r="C48">
-        <v>0.01500394025019678</v>
+        <v>-0.006796597179560633</v>
       </c>
       <c r="D48">
-        <v>-0.003448527930121438</v>
+        <v>0.00514575083689086</v>
       </c>
       <c r="E48">
-        <v>-0.03342372431675622</v>
+        <v>-0.002848697311518473</v>
       </c>
       <c r="F48">
-        <v>0.04485403276635745</v>
+        <v>-0.009549739179985108</v>
       </c>
       <c r="G48">
-        <v>0.01256798610866084</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.03020445467139762</v>
+      </c>
+      <c r="H48">
+        <v>-0.001901983292134328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09096692741710917</v>
+        <v>0.07231338587192311</v>
       </c>
       <c r="C50">
-        <v>0.04525063773994382</v>
+        <v>-0.02659489036886025</v>
       </c>
       <c r="D50">
-        <v>0.005628017892592671</v>
+        <v>0.04667695005280068</v>
       </c>
       <c r="E50">
-        <v>-0.05684239576875025</v>
+        <v>0.009197876933656679</v>
       </c>
       <c r="F50">
-        <v>0.03411545035794105</v>
+        <v>-0.0225724465446081</v>
       </c>
       <c r="G50">
-        <v>0.03487549480804964</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02707767622537237</v>
+      </c>
+      <c r="H50">
+        <v>0.02493099741764787</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02244437761773423</v>
+        <v>0.02134788774672509</v>
       </c>
       <c r="C51">
-        <v>0.0188865473393144</v>
+        <v>0.0004624026655383505</v>
       </c>
       <c r="D51">
-        <v>-0.01382293161031621</v>
+        <v>-0.007318232389281374</v>
       </c>
       <c r="E51">
-        <v>-0.01621341888113377</v>
+        <v>-0.006703075224561624</v>
       </c>
       <c r="F51">
-        <v>0.1417060845373986</v>
+        <v>0.01284244402106897</v>
       </c>
       <c r="G51">
-        <v>0.04911102520604047</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07283767571617006</v>
+      </c>
+      <c r="H51">
+        <v>-0.02548414851017392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1014254743955748</v>
+        <v>0.09037327994718024</v>
       </c>
       <c r="C53">
-        <v>0.05123869253746016</v>
+        <v>-0.03564703228320829</v>
       </c>
       <c r="D53">
-        <v>0.02222649490185644</v>
+        <v>0.07924196167441824</v>
       </c>
       <c r="E53">
-        <v>-0.04666823489230362</v>
+        <v>-0.003147827860019974</v>
       </c>
       <c r="F53">
-        <v>-0.05603269553350455</v>
+        <v>-0.05415273552755092</v>
       </c>
       <c r="G53">
-        <v>0.03308381135741693</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05345916877277795</v>
+      </c>
+      <c r="H53">
+        <v>0.03740929733429903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01475461118333518</v>
+        <v>0.02437587896545209</v>
       </c>
       <c r="C54">
-        <v>0.007026776067827816</v>
+        <v>-0.01146548930810615</v>
       </c>
       <c r="D54">
-        <v>0.01772639257384084</v>
+        <v>-0.01651882875786101</v>
       </c>
       <c r="E54">
-        <v>-0.03483647271254248</v>
+        <v>0.005447607545505362</v>
       </c>
       <c r="F54">
-        <v>0.06485031172048428</v>
+        <v>-0.01077999440880929</v>
       </c>
       <c r="G54">
-        <v>0.0765384921127527</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03741167846895128</v>
+      </c>
+      <c r="H54">
+        <v>0.01405485817704217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09987605761571609</v>
+        <v>0.07657047585847322</v>
       </c>
       <c r="C55">
-        <v>0.01435153546879786</v>
+        <v>-0.03126810511287487</v>
       </c>
       <c r="D55">
-        <v>0.02524479964414044</v>
+        <v>0.07614533327997249</v>
       </c>
       <c r="E55">
-        <v>-0.05631638534764161</v>
+        <v>0.007734282759933021</v>
       </c>
       <c r="F55">
-        <v>-0.04596508533055575</v>
+        <v>-0.0438249326958307</v>
       </c>
       <c r="G55">
-        <v>0.06596524095792808</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03068838566036696</v>
+      </c>
+      <c r="H55">
+        <v>0.04605348482813799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1442652775601109</v>
+        <v>0.1261684833779224</v>
       </c>
       <c r="C56">
-        <v>0.05951677526433757</v>
+        <v>-0.05593039037123021</v>
       </c>
       <c r="D56">
-        <v>0.08377574042042307</v>
+        <v>0.1000102051904512</v>
       </c>
       <c r="E56">
-        <v>-0.0540761582236905</v>
+        <v>-0.0004518090485824016</v>
       </c>
       <c r="F56">
-        <v>-0.1455215099328898</v>
+        <v>-0.08725377785266472</v>
       </c>
       <c r="G56">
-        <v>-0.006634147960406133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.09256769341035387</v>
+      </c>
+      <c r="H56">
+        <v>0.02877429438343155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04248001126313964</v>
+        <v>0.03984825762426472</v>
       </c>
       <c r="C57">
-        <v>0.03009327211433875</v>
+        <v>0.01005935922412905</v>
       </c>
       <c r="D57">
-        <v>-0.01023301762161016</v>
+        <v>0.02679243358482716</v>
       </c>
       <c r="E57">
-        <v>-0.004123800386860574</v>
+        <v>-0.01168316614639656</v>
       </c>
       <c r="F57">
-        <v>0.07473677456466907</v>
+        <v>-0.0138628816208375</v>
       </c>
       <c r="G57">
-        <v>0.03714064260670311</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06296576108304751</v>
+      </c>
+      <c r="H57">
+        <v>-0.01192482181417976</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1972978025539416</v>
+        <v>0.14486518168405</v>
       </c>
       <c r="C58">
-        <v>0.1134617499830122</v>
+        <v>-0.04228045171966437</v>
       </c>
       <c r="D58">
-        <v>-0.03959474409815213</v>
+        <v>0.1338749883650578</v>
       </c>
       <c r="E58">
-        <v>-0.2272282085691712</v>
+        <v>-0.1171032161129553</v>
       </c>
       <c r="F58">
-        <v>0.2604936914173457</v>
+        <v>0.03637194646694338</v>
       </c>
       <c r="G58">
-        <v>-0.0218009832802483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6833304733418196</v>
+      </c>
+      <c r="H58">
+        <v>0.5361198086485817</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05947423031296435</v>
+        <v>0.15681393190766</v>
       </c>
       <c r="C59">
-        <v>-0.006375717054233583</v>
+        <v>-0.04039091231375967</v>
       </c>
       <c r="D59">
-        <v>0.06518367649244784</v>
+        <v>-0.2197637450816478</v>
       </c>
       <c r="E59">
-        <v>0.1315229689180053</v>
+        <v>-0.02600972349379928</v>
       </c>
       <c r="F59">
-        <v>0.0935485486857064</v>
+        <v>0.03818246374371059</v>
       </c>
       <c r="G59">
-        <v>-0.03236920949944774</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01476541110084651</v>
+      </c>
+      <c r="H59">
+        <v>-0.01775061682490242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1627713183961581</v>
+        <v>0.1722521265677259</v>
       </c>
       <c r="C60">
-        <v>0.07435409559399302</v>
+        <v>-0.03650334835248643</v>
       </c>
       <c r="D60">
-        <v>-0.009568903072804821</v>
+        <v>0.02384242635131812</v>
       </c>
       <c r="E60">
-        <v>-0.03433970178807202</v>
+        <v>-0.05470881419539131</v>
       </c>
       <c r="F60">
-        <v>0.1323588518540214</v>
+        <v>-0.03108635971294958</v>
       </c>
       <c r="G60">
-        <v>-0.3434812992721756</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1305890145813294</v>
+      </c>
+      <c r="H60">
+        <v>-0.3833703017464948</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02171617830163143</v>
+        <v>0.02169938501441601</v>
       </c>
       <c r="C61">
-        <v>0.008038271858110213</v>
+        <v>-0.006138621506960068</v>
       </c>
       <c r="D61">
-        <v>0.001060139693106257</v>
+        <v>0.04292318248238796</v>
       </c>
       <c r="E61">
-        <v>-0.02464005648745333</v>
+        <v>0.001155785711580843</v>
       </c>
       <c r="F61">
-        <v>0.0247590211015327</v>
+        <v>-0.01839333910074822</v>
       </c>
       <c r="G61">
-        <v>0.01027121074126801</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03440132663281487</v>
+      </c>
+      <c r="H61">
+        <v>-0.03784057909927055</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01645272358895883</v>
+        <v>0.01344421924764656</v>
       </c>
       <c r="C63">
-        <v>0.01329161774839921</v>
+        <v>0.002049849229495959</v>
       </c>
       <c r="D63">
-        <v>-0.0006309386217627055</v>
+        <v>0.01188541433134201</v>
       </c>
       <c r="E63">
-        <v>-0.04176186732549453</v>
+        <v>0.001646144983960361</v>
       </c>
       <c r="F63">
-        <v>0.01135876405196985</v>
+        <v>-0.0148370044836952</v>
       </c>
       <c r="G63">
-        <v>0.04343765263790955</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01715644847336484</v>
+      </c>
+      <c r="H63">
+        <v>0.01256528724818094</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03877644932605211</v>
+        <v>0.04255339508088272</v>
       </c>
       <c r="C64">
-        <v>-0.01179183478531688</v>
+        <v>-0.01061457580964312</v>
       </c>
       <c r="D64">
-        <v>0.01866916594823001</v>
+        <v>0.03920190523284699</v>
       </c>
       <c r="E64">
-        <v>-0.03797920625050149</v>
+        <v>0.007951271367320701</v>
       </c>
       <c r="F64">
-        <v>0.02552344500346122</v>
+        <v>-0.01090451008722176</v>
       </c>
       <c r="G64">
-        <v>0.06345765201206195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02123659726869525</v>
+      </c>
+      <c r="H64">
+        <v>-0.02594280416722457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01378496197750345</v>
+        <v>0.02846714736759542</v>
       </c>
       <c r="C65">
-        <v>0.009852371890520788</v>
+        <v>0.005090561891880251</v>
       </c>
       <c r="D65">
-        <v>-0.00909906478380009</v>
+        <v>0.05906721655541621</v>
       </c>
       <c r="E65">
-        <v>-0.0192115560782315</v>
+        <v>0.005246298318894193</v>
       </c>
       <c r="F65">
-        <v>0.01018062041105234</v>
+        <v>-0.0341480431615177</v>
       </c>
       <c r="G65">
-        <v>-0.009994744174508016</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.00838917516037118</v>
+      </c>
+      <c r="H65">
+        <v>-0.0580954016653905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04107304693531435</v>
+        <v>0.02670496008289417</v>
       </c>
       <c r="C66">
-        <v>0.02879402827969722</v>
+        <v>-0.005257524134762162</v>
       </c>
       <c r="D66">
-        <v>0.00764506176646855</v>
+        <v>0.0878793238670357</v>
       </c>
       <c r="E66">
-        <v>-0.0452880239369433</v>
+        <v>-0.01090546911154913</v>
       </c>
       <c r="F66">
-        <v>0.04744257504940425</v>
+        <v>-0.03782741074569958</v>
       </c>
       <c r="G66">
-        <v>-0.001974274428656446</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.05045454085119756</v>
+      </c>
+      <c r="H66">
+        <v>-0.05995787961151804</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0178769345870646</v>
+        <v>0.04354259474428046</v>
       </c>
       <c r="C67">
-        <v>-0.0155532494655328</v>
+        <v>-0.01999469290488704</v>
       </c>
       <c r="D67">
-        <v>-0.001815803699846023</v>
+        <v>-0.003036409599637231</v>
       </c>
       <c r="E67">
-        <v>0.02461163910550341</v>
+        <v>0.002371548236798878</v>
       </c>
       <c r="F67">
-        <v>0.01920901209325613</v>
+        <v>-0.01291543746675279</v>
       </c>
       <c r="G67">
-        <v>-0.01744573592083006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01947960032895654</v>
+      </c>
+      <c r="H67">
+        <v>-0.03292035318987797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07532993426879246</v>
+        <v>0.1612298605594483</v>
       </c>
       <c r="C68">
-        <v>-0.02366897133412443</v>
+        <v>-0.02145044331737389</v>
       </c>
       <c r="D68">
-        <v>0.07391715632894642</v>
+        <v>-0.2166313458263548</v>
       </c>
       <c r="E68">
-        <v>0.1769068507484853</v>
+        <v>-0.02183104460735045</v>
       </c>
       <c r="F68">
-        <v>0.08094184928640435</v>
+        <v>0.05803803727877154</v>
       </c>
       <c r="G68">
-        <v>-0.06399520488541331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01058878225706803</v>
+      </c>
+      <c r="H68">
+        <v>0.04106556880881749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07291570226615175</v>
+        <v>0.05875515590436646</v>
       </c>
       <c r="C69">
-        <v>0.03526120457186746</v>
+        <v>-0.02811591155784193</v>
       </c>
       <c r="D69">
-        <v>0.02106031997282647</v>
+        <v>0.03907777422138577</v>
       </c>
       <c r="E69">
-        <v>-0.01465656909680288</v>
+        <v>-0.005667582780100577</v>
       </c>
       <c r="F69">
-        <v>0.01513139705412744</v>
+        <v>-0.02746997508335464</v>
       </c>
       <c r="G69">
-        <v>0.07475989053132324</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.00142588551268579</v>
+      </c>
+      <c r="H69">
+        <v>0.009321471599343068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08996934612034638</v>
+        <v>0.1521823865236183</v>
       </c>
       <c r="C71">
-        <v>-0.005545523860958343</v>
+        <v>-0.02886506354370787</v>
       </c>
       <c r="D71">
-        <v>0.06354611721569803</v>
+        <v>-0.1994604540759237</v>
       </c>
       <c r="E71">
-        <v>0.2083719069433047</v>
+        <v>-0.02208988829211791</v>
       </c>
       <c r="F71">
-        <v>0.09129072755172149</v>
+        <v>0.06660595323960114</v>
       </c>
       <c r="G71">
-        <v>-0.02916947651601561</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.007787636534008701</v>
+      </c>
+      <c r="H71">
+        <v>0.02534681234967854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1083206548949368</v>
+        <v>0.08547134979152603</v>
       </c>
       <c r="C72">
-        <v>0.04848071027710922</v>
+        <v>-0.04037617416876878</v>
       </c>
       <c r="D72">
-        <v>0.07359905310846625</v>
+        <v>0.08471158931321301</v>
       </c>
       <c r="E72">
-        <v>-0.06713706964686407</v>
+        <v>-0.009624666551885975</v>
       </c>
       <c r="F72">
-        <v>0.1074363350034746</v>
+        <v>-0.08097712896057588</v>
       </c>
       <c r="G72">
-        <v>-0.1236353947160158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.1061496118485763</v>
+      </c>
+      <c r="H72">
+        <v>-0.1556209107359361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.240570422363303</v>
+        <v>0.2403237507557377</v>
       </c>
       <c r="C73">
-        <v>0.07349647531087354</v>
+        <v>-0.04835155020484309</v>
       </c>
       <c r="D73">
-        <v>0.008095419113444779</v>
+        <v>0.07008163622514195</v>
       </c>
       <c r="E73">
-        <v>0.02896518249498478</v>
+        <v>-0.08182501432854172</v>
       </c>
       <c r="F73">
-        <v>0.2274932895364827</v>
+        <v>-0.02865131604600693</v>
       </c>
       <c r="G73">
-        <v>-0.5061221805574833</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1756057210761198</v>
+      </c>
+      <c r="H73">
+        <v>-0.5104880894035859</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1278010692414178</v>
+        <v>0.1147334285556561</v>
       </c>
       <c r="C74">
-        <v>0.04631833330847119</v>
+        <v>-0.05085607726753417</v>
       </c>
       <c r="D74">
-        <v>0.03607754480330156</v>
+        <v>0.1002086249234378</v>
       </c>
       <c r="E74">
-        <v>-0.02099353302457983</v>
+        <v>-0.006537869450509125</v>
       </c>
       <c r="F74">
-        <v>-0.09509647488299923</v>
+        <v>-0.06976417255057668</v>
       </c>
       <c r="G74">
-        <v>-0.02511391971363107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07032001665957617</v>
+      </c>
+      <c r="H74">
+        <v>0.01126778706264342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2168750506022973</v>
+        <v>0.2237134340020462</v>
       </c>
       <c r="C75">
-        <v>0.1193921450954225</v>
+        <v>-0.1006379955652439</v>
       </c>
       <c r="D75">
-        <v>0.1144015055834216</v>
+        <v>0.1579681119455419</v>
       </c>
       <c r="E75">
-        <v>-0.07736051287584184</v>
+        <v>-0.02596666868270668</v>
       </c>
       <c r="F75">
-        <v>-0.1526420515281385</v>
+        <v>-0.1531512927392852</v>
       </c>
       <c r="G75">
-        <v>0.05100927724151611</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1433503755780577</v>
+      </c>
+      <c r="H75">
+        <v>0.08921926068376128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2644677781043451</v>
+        <v>0.1970625583318951</v>
       </c>
       <c r="C76">
-        <v>0.06947190250628971</v>
+        <v>-0.09372751468079146</v>
       </c>
       <c r="D76">
-        <v>0.155286849118552</v>
+        <v>0.1551392779983906</v>
       </c>
       <c r="E76">
-        <v>-0.05745510199094318</v>
+        <v>0.0178509738813609</v>
       </c>
       <c r="F76">
-        <v>-0.1785872472679763</v>
+        <v>-0.1569780862170586</v>
       </c>
       <c r="G76">
-        <v>0.06356866524743507</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1556191170060637</v>
+      </c>
+      <c r="H76">
+        <v>0.09636477135161979</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1434963281018817</v>
+        <v>0.07205250172674552</v>
       </c>
       <c r="C77">
-        <v>0.04212675527115959</v>
+        <v>-0.009292953447700827</v>
       </c>
       <c r="D77">
-        <v>-0.07325626233684362</v>
+        <v>0.07730203240627219</v>
       </c>
       <c r="E77">
-        <v>-0.1049731634359444</v>
+        <v>-0.01460886334554387</v>
       </c>
       <c r="F77">
-        <v>0.2117282710307228</v>
+        <v>0.0303240117425855</v>
       </c>
       <c r="G77">
-        <v>0.1575382742620828</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1274350102375806</v>
+      </c>
+      <c r="H77">
+        <v>0.07121118603508546</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05619715861224146</v>
+        <v>0.03639748018290138</v>
       </c>
       <c r="C78">
-        <v>0.03541143768596419</v>
+        <v>-0.01001615893686427</v>
       </c>
       <c r="D78">
-        <v>-0.001862648642627861</v>
+        <v>0.06372163159218028</v>
       </c>
       <c r="E78">
-        <v>-0.1008114723284376</v>
+        <v>-0.0008558289216271685</v>
       </c>
       <c r="F78">
-        <v>0.04547595353489007</v>
+        <v>-0.0321993385652932</v>
       </c>
       <c r="G78">
-        <v>0.05159601698350541</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06316406856785373</v>
+      </c>
+      <c r="H78">
+        <v>-0.02909307320456633</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2273832868829058</v>
+        <v>0.1584639630281326</v>
       </c>
       <c r="C80">
-        <v>-0.9134828955053478</v>
+        <v>-0.04727145809027725</v>
       </c>
       <c r="D80">
-        <v>0.1873732594759722</v>
+        <v>0.041895081371096</v>
       </c>
       <c r="E80">
-        <v>-0.2436706426345977</v>
+        <v>0.963798612195526</v>
       </c>
       <c r="F80">
-        <v>0.01419969379115406</v>
+        <v>0.1333418167431937</v>
       </c>
       <c r="G80">
-        <v>-0.0281687978063167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.08307051219377642</v>
+      </c>
+      <c r="H80">
+        <v>-0.008363397248842877</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1550949447847585</v>
+        <v>0.146216907669315</v>
       </c>
       <c r="C81">
-        <v>0.0621038481457342</v>
+        <v>-0.06502904632303202</v>
       </c>
       <c r="D81">
-        <v>0.1029052377300484</v>
+        <v>0.1003211196005894</v>
       </c>
       <c r="E81">
-        <v>-0.04635729125218042</v>
+        <v>0.0007144072651159364</v>
       </c>
       <c r="F81">
-        <v>-0.1532493784394619</v>
+        <v>-0.09962823353859</v>
       </c>
       <c r="G81">
-        <v>0.0124685479929447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.09651061861764133</v>
+      </c>
+      <c r="H81">
+        <v>0.06774766282597319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05301492568418457</v>
+        <v>0.03573255197098924</v>
       </c>
       <c r="C83">
-        <v>0.03503968708921012</v>
+        <v>-0.006750467354354877</v>
       </c>
       <c r="D83">
-        <v>-0.02801331562574974</v>
+        <v>0.02460067688311153</v>
       </c>
       <c r="E83">
-        <v>-0.03191473179983523</v>
+        <v>-0.01366679600116403</v>
       </c>
       <c r="F83">
-        <v>0.05848289152629397</v>
+        <v>-0.00561764512435668</v>
       </c>
       <c r="G83">
-        <v>0.04919791957999658</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05911800941896585</v>
+      </c>
+      <c r="H83">
+        <v>-0.01774520588671651</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2361521050161025</v>
+        <v>0.2103678974254899</v>
       </c>
       <c r="C85">
-        <v>0.09618945319012072</v>
+        <v>-0.08297665028427105</v>
       </c>
       <c r="D85">
-        <v>0.1193882847959388</v>
+        <v>0.1604447921645651</v>
       </c>
       <c r="E85">
-        <v>-0.05303869510007882</v>
+        <v>-0.01818380708140091</v>
       </c>
       <c r="F85">
-        <v>-0.1647466408270567</v>
+        <v>-0.1340828539183369</v>
       </c>
       <c r="G85">
-        <v>0.07683059132224779</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1559943843627742</v>
+      </c>
+      <c r="H85">
+        <v>0.06040160963493863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0003450386143085537</v>
+        <v>0.01747616630973131</v>
       </c>
       <c r="C86">
-        <v>-0.006419322741421328</v>
+        <v>0.0007928862511114999</v>
       </c>
       <c r="D86">
-        <v>-0.01624138392926941</v>
+        <v>0.005497278942935368</v>
       </c>
       <c r="E86">
-        <v>-0.04700787839278663</v>
+        <v>-0.01115451065458499</v>
       </c>
       <c r="F86">
-        <v>0.066987251570772</v>
+        <v>0.009576242918583139</v>
       </c>
       <c r="G86">
-        <v>0.01861281392454859</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08773878523287555</v>
+      </c>
+      <c r="H86">
+        <v>-0.03914436627919306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03244924364896957</v>
+        <v>0.02814176381027627</v>
       </c>
       <c r="C87">
-        <v>0.01107972270787621</v>
+        <v>-0.002727385735509714</v>
       </c>
       <c r="D87">
-        <v>-0.00503517405983525</v>
+        <v>0.03210564096519013</v>
       </c>
       <c r="E87">
-        <v>-0.03047496763624101</v>
+        <v>-0.003603189291352513</v>
       </c>
       <c r="F87">
-        <v>0.08805738704271095</v>
+        <v>-0.01085978477324083</v>
       </c>
       <c r="G87">
-        <v>-0.003297059551976064</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09771216475645109</v>
+      </c>
+      <c r="H87">
+        <v>-0.02821372010883015</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01078474934115191</v>
+        <v>0.03756143553564408</v>
       </c>
       <c r="C88">
-        <v>-0.01585901867138212</v>
+        <v>0.01060301542031428</v>
       </c>
       <c r="D88">
-        <v>0.02207973288015676</v>
+        <v>0.002175966602389101</v>
       </c>
       <c r="E88">
-        <v>0.004339109346301959</v>
+        <v>0.009070756527661438</v>
       </c>
       <c r="F88">
-        <v>0.03154115478933808</v>
+        <v>-0.01450860078126927</v>
       </c>
       <c r="G88">
-        <v>0.06347969243753608</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003504928861643123</v>
+      </c>
+      <c r="H88">
+        <v>-0.01006621265262069</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1037512344054952</v>
+        <v>0.2446565996265809</v>
       </c>
       <c r="C89">
-        <v>-0.004736174503027451</v>
+        <v>-0.04190145581683823</v>
       </c>
       <c r="D89">
-        <v>0.08203302878806797</v>
+        <v>-0.3391218942472198</v>
       </c>
       <c r="E89">
-        <v>0.2730802379349034</v>
+        <v>-0.05474819476818918</v>
       </c>
       <c r="F89">
-        <v>0.1434480324698616</v>
+        <v>0.07141289436571385</v>
       </c>
       <c r="G89">
-        <v>0.02145456150537675</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.006455618393068574</v>
+      </c>
+      <c r="H89">
+        <v>0.03833353651249017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1008561025250006</v>
+        <v>0.1992425925200893</v>
       </c>
       <c r="C90">
-        <v>-0.05278318752922704</v>
+        <v>-0.03516489333178484</v>
       </c>
       <c r="D90">
-        <v>0.1034527696964598</v>
+        <v>-0.3017500416764415</v>
       </c>
       <c r="E90">
-        <v>0.2989912642328333</v>
+        <v>-0.03238693672395635</v>
       </c>
       <c r="F90">
-        <v>0.1076857561693062</v>
+        <v>0.08330256263046151</v>
       </c>
       <c r="G90">
-        <v>-0.003820781665915774</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04889257143362327</v>
+      </c>
+      <c r="H90">
+        <v>0.04961544504871314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2889387029782566</v>
+        <v>0.231967012042813</v>
       </c>
       <c r="C91">
-        <v>0.1071639965951468</v>
+        <v>-0.1025526687565138</v>
       </c>
       <c r="D91">
-        <v>0.1156019389316501</v>
+        <v>0.1538052785350974</v>
       </c>
       <c r="E91">
-        <v>-0.02929968714784961</v>
+        <v>-0.01746088555564245</v>
       </c>
       <c r="F91">
-        <v>-0.2420652307198664</v>
+        <v>-0.1482007615761908</v>
       </c>
       <c r="G91">
-        <v>0.03900648559746796</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1882294866530161</v>
+      </c>
+      <c r="H91">
+        <v>0.1223131909550012</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1732536775858642</v>
+        <v>0.2480927545153528</v>
       </c>
       <c r="C92">
-        <v>-0.05838295964361833</v>
+        <v>-0.09744736263770826</v>
       </c>
       <c r="D92">
-        <v>0.1519576387389925</v>
+        <v>-0.237997117635082</v>
       </c>
       <c r="E92">
-        <v>0.4774204887845256</v>
+        <v>-0.01438603009120651</v>
       </c>
       <c r="F92">
-        <v>0.07249699049898689</v>
+        <v>0.04842772680256647</v>
       </c>
       <c r="G92">
-        <v>0.4480698616324661</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04626985587989308</v>
+      </c>
+      <c r="H92">
+        <v>0.1436076721941838</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1064943779200481</v>
+        <v>0.2242104301149947</v>
       </c>
       <c r="C93">
-        <v>-0.06322580904184924</v>
+        <v>-0.04698915928586674</v>
       </c>
       <c r="D93">
-        <v>0.1038146304682901</v>
+        <v>-0.3271722813266495</v>
       </c>
       <c r="E93">
-        <v>0.4113671217790481</v>
+        <v>-0.04415796478981148</v>
       </c>
       <c r="F93">
-        <v>0.07572844718240114</v>
+        <v>0.1080408515538179</v>
       </c>
       <c r="G93">
-        <v>-0.07875472009634486</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.06109307371699767</v>
+      </c>
+      <c r="H93">
+        <v>-0.009679732095328471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2675453137776141</v>
+        <v>0.2510614435969697</v>
       </c>
       <c r="C94">
-        <v>0.1166812645025003</v>
+        <v>-0.0914795669173112</v>
       </c>
       <c r="D94">
-        <v>0.2004178756199858</v>
+        <v>0.1359146092014545</v>
       </c>
       <c r="E94">
-        <v>-0.03828310448585235</v>
+        <v>-0.03399045471123959</v>
       </c>
       <c r="F94">
-        <v>-0.2655369383367888</v>
+        <v>-0.1897739190172112</v>
       </c>
       <c r="G94">
-        <v>-0.04547415851490726</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1900421451908474</v>
+      </c>
+      <c r="H94">
+        <v>0.1293272109075273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08030468317482045</v>
+        <v>0.05910574323025137</v>
       </c>
       <c r="C95">
-        <v>0.07578670058592207</v>
+        <v>-0.03075179613628793</v>
       </c>
       <c r="D95">
-        <v>-0.0344819742079935</v>
+        <v>0.0945654051884238</v>
       </c>
       <c r="E95">
-        <v>-0.08686660595128427</v>
+        <v>-0.07642261544654314</v>
       </c>
       <c r="F95">
-        <v>0.02264221827440756</v>
+        <v>-0.006354271967253786</v>
       </c>
       <c r="G95">
-        <v>0.2099667192444261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06085277044409968</v>
+      </c>
+      <c r="H95">
+        <v>-0.006482852030042799</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.183813952213373</v>
+        <v>0.182768029848469</v>
       </c>
       <c r="C98">
-        <v>0.04629288109390595</v>
+        <v>-0.06951951170394997</v>
       </c>
       <c r="D98">
-        <v>-0.002521757000301228</v>
+        <v>0.04140013394069989</v>
       </c>
       <c r="E98">
-        <v>0.05393993888658706</v>
+        <v>-0.05323180724706655</v>
       </c>
       <c r="F98">
-        <v>0.09836931798043654</v>
+        <v>-0.001214362231079396</v>
       </c>
       <c r="G98">
-        <v>-0.3662444968995254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1500350565154479</v>
+      </c>
+      <c r="H98">
+        <v>-0.3715313372133976</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005684211125183277</v>
+        <v>0.01498083708087531</v>
       </c>
       <c r="C101">
-        <v>0.01505629577087869</v>
+        <v>0.0006031945753743865</v>
       </c>
       <c r="D101">
-        <v>0.002542471731836482</v>
+        <v>0.008683685064964409</v>
       </c>
       <c r="E101">
-        <v>-0.1156293722904699</v>
+        <v>0.004209698502324315</v>
       </c>
       <c r="F101">
-        <v>0.1528034015098388</v>
+        <v>-0.02109800249038395</v>
       </c>
       <c r="G101">
-        <v>0.1180300680122572</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1057986709684774</v>
+      </c>
+      <c r="H101">
+        <v>0.06658186524847319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09824676809655737</v>
+        <v>0.1019470027568355</v>
       </c>
       <c r="C102">
-        <v>0.0363835774129623</v>
+        <v>-0.03270965751271387</v>
       </c>
       <c r="D102">
-        <v>0.03995023173324204</v>
+        <v>0.07894878046205067</v>
       </c>
       <c r="E102">
-        <v>-0.061327917205482</v>
+        <v>-0.002046888336376041</v>
       </c>
       <c r="F102">
-        <v>-0.1231887978644197</v>
+        <v>-0.06805964680594122</v>
       </c>
       <c r="G102">
-        <v>0.07037185363823133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.08781101726619631</v>
+      </c>
+      <c r="H102">
+        <v>0.05254339859502129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02621706839752025</v>
+        <v>0.01932552391933583</v>
       </c>
       <c r="C103">
-        <v>0.01517909120527657</v>
+        <v>-0.007398982226309802</v>
       </c>
       <c r="D103">
-        <v>0.01388865598224956</v>
+        <v>0.01834450688443472</v>
       </c>
       <c r="E103">
-        <v>-0.007202082770436783</v>
+        <v>0.006032120088014053</v>
       </c>
       <c r="F103">
-        <v>-0.01338733005594191</v>
+        <v>-0.01853503514395803</v>
       </c>
       <c r="G103">
-        <v>0.02057675801484175</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.003518930995898008</v>
+      </c>
+      <c r="H103">
+        <v>0.01088546580048538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2702086318086606</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9463026632536004</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.0009535605989797409</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02360340715681506</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1441737887907894</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.02528088870677913</v>
+      </c>
+      <c r="H104">
+        <v>0.02856153271441918</v>
       </c>
     </row>
   </sheetData>
